--- a/DataBases/07-ADO-NET/07-InsertExcelRow/score_db.xlsx
+++ b/DataBases/07-ADO-NET/07-InsertExcelRow/score_db.xlsx
@@ -8,14 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="268" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" state="visible" r:id="rId2" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="true"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>powerUser</t>
+  </si>
+  <si>
+    <t>hellrazer</t>
+  </si>
+  <si>
+    <t>jengibi</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -123,9 +129,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -145,10 +151,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -157,7 +163,7 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -165,7 +171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -173,7 +179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
@@ -181,7 +187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
@@ -189,7 +195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
@@ -197,7 +203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -205,14 +211,20 @@
         <v>-234</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>hellrazer</t>
-        </is>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>666</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
